--- a/expense_tracker_backup.xlsx
+++ b/expense_tracker_backup.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,6 +918,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3027</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -929,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,6 +1074,23 @@
         <v>500</v>
       </c>
       <c r="E7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="C8" t="n">
+        <v>450</v>
+      </c>
+      <c r="D8" t="n">
+        <v>420</v>
+      </c>
+      <c r="E8" t="n">
         <v>200</v>
       </c>
     </row>
